--- a/2017 processed/outliers 2017 full.xlsx
+++ b/2017 processed/outliers 2017 full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1280" windowWidth="22020" windowHeight="13940" activeTab="3"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
-    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5341" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="1195">
   <si>
     <t>Type</t>
   </si>
@@ -3693,6 +3693,12 @@
   </si>
   <si>
     <t>Christian Hoyos1 &amp; Dedre Gentner1</t>
+  </si>
+  <si>
+    <t>outliers 2017 erin.xlsx</t>
+  </si>
+  <si>
+    <t>added PBR to the full file</t>
   </si>
 </sst>
 </file>
@@ -11133,7 +11139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -11263,7 +11269,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -50379,10 +50385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50448,45 +50454,56 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>680</v>
+        <v>1193</v>
       </c>
       <c r="B6" t="s">
-        <v>857</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1075</v>
+        <v>1194</v>
+      </c>
+      <c r="C6" s="50">
+        <v>43132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B7" t="s">
-        <v>858</v>
-      </c>
-      <c r="C7" s="50">
-        <v>43125</v>
+        <v>857</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B8" t="s">
-        <v>685</v>
+        <v>858</v>
       </c>
       <c r="C8" s="50">
-        <v>43077</v>
+        <v>43125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C9" s="50">
+        <v>43077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>683</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>1004</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C10" s="50">
         <v>43077</v>
       </c>
     </row>
@@ -53833,8 +53850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/2017 processed/outliers 2017 full.xlsx
+++ b/2017 processed/outliers 2017 full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
-    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5712" uniqueCount="1296">
   <si>
     <t>Type</t>
   </si>
@@ -3699,6 +3699,309 @@
   </si>
   <si>
     <t>added PBR to the full file</t>
+  </si>
+  <si>
+    <t>Outlier Law Human Behavior.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forensics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Law and Human Behavior </t>
+  </si>
+  <si>
+    <t>Context Influences Interpretation of Eyewitness Confidence Statements</t>
+  </si>
+  <si>
+    <t>Daniella K. Cash and Sean M. Lane</t>
+  </si>
+  <si>
+    <t>ANOVA, t-test</t>
+  </si>
+  <si>
+    <t>Witness memory and alcohol: The effects of state-dependent recall.</t>
+  </si>
+  <si>
+    <t>Nadja Schreiber Compo, Rolando N. Carol, Jacqueline R. Evans, et al.</t>
+  </si>
+  <si>
+    <t>Health complications and research team was unable to find a reliable source for calculating BMI</t>
+  </si>
+  <si>
+    <t>Procedure Error</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Witnessing Domestic Violence During Childhood Is Associated With Psychopathic Traits in Adult Male Criminal Offenders</t>
+  </si>
+  <si>
+    <t>Monika Dargis and Michael Koenig</t>
+  </si>
+  <si>
+    <t>Regression Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outlier data with undue influence on the regression models </t>
+  </si>
+  <si>
+    <t>A Room With a View: Setting Influences Information Disclosure in Investigative Interviews</t>
+  </si>
+  <si>
+    <t>Evan Dawson, Maria Hartwig, Laure Brimbal, and Philipp Denisenkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-test, Process Modeling </t>
+  </si>
+  <si>
+    <t>ANOVA, Process Modeling</t>
+  </si>
+  <si>
+    <t>Is the Effect of Justice System Attitudes on Recidivism Stable After Youths’ First Arrest? Race and Legal Socialization Among First-Time Youth Offenders</t>
+  </si>
+  <si>
+    <t>Adam Fine, Caitlin Cavanagh, Sachiko Donley, et al.</t>
+  </si>
+  <si>
+    <t>Mixed Model</t>
+  </si>
+  <si>
+    <t>For Whom Does Deterrence Affect Behavior? Identifying Key Individual Differences</t>
+  </si>
+  <si>
+    <t>Adam Fine and Benjamin van Rooij</t>
+  </si>
+  <si>
+    <t>Correlation Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">failing quality assurance questions </t>
+  </si>
+  <si>
+    <t>Violent Offending Among Juveniles: A 7-Year Longitudinal Study of Recidivism, Desistance, and Associations With Mental Health</t>
+  </si>
+  <si>
+    <t>Sascha Hein, Baptiste Barbot, Amanda Square, et al.</t>
+  </si>
+  <si>
+    <t>The Evolving Landscape of Title IX: Predicting Mandatory Reporters’ Responses to Sexual Assault Disclosures</t>
+  </si>
+  <si>
+    <t>Kathryn J. Holland and Lilia M. Cortina</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Incomplete survey</t>
+  </si>
+  <si>
+    <t>Police Reports of Mock Suspect Interrogations: A Test of Accuracy and Perception</t>
+  </si>
+  <si>
+    <t>Saul M. Kassin, Jeff Kukucka, Victoria Z. Lawson, and John DeCarlo</t>
+  </si>
+  <si>
+    <t>MANOVA, ANOVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> one excluded after he expressed suspicion that his session had been recorded; a secondfailed to submit the required written report following his session</t>
+  </si>
+  <si>
+    <t>one-way MANOVA</t>
+  </si>
+  <si>
+    <t>Tablet Computers and Forensic and Correctional Psychological Assessment: A Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Christopher M. King, Kirk Heilbrun, Na Young Kim, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power analysis, Chi Square, t-test, Correlation, </t>
+  </si>
+  <si>
+    <t>Combined Evaluations of Competency to Stand Trial and Mental State at the Time of the Offense: An Overlooked Methodological Consideration?</t>
+  </si>
+  <si>
+    <t>Lauren Kois, James M. Wellbeloved-Stone, Preeti Chauhan, &amp; Janet I. Warren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi Square, Bivariate and Multiple Variate Analysis, </t>
+  </si>
+  <si>
+    <t>1.7% (n=104) of cases were missing evaluator identification numbers,so the number of evaluators is likely larger.   randomly selected the mean number of cases (n=21) for inclusion for each of evaluators w/ cases &gt; 3 SD above mean.removed all cases with missing evaluator identification</t>
+  </si>
+  <si>
+    <t>Sexual Misconduct in Prison: What Factors Affect Whether Incarcerated Women Will Report Abuses Committed by Prison Staff?</t>
+  </si>
+  <si>
+    <t>Sheryl P. Kubiak, Hannah J. Brenner, Deborah Bybee, et al.</t>
+  </si>
+  <si>
+    <t>mixed effects logistic regression</t>
+  </si>
+  <si>
+    <t>missing files, women opted out, missing information on key data points</t>
+  </si>
+  <si>
+    <t>Effects of a Proven Error on Evaluations of Witness Testimony</t>
+  </si>
+  <si>
+    <t>Tiffany Lavis and Neil Brewer</t>
+  </si>
+  <si>
+    <t>ANOVA, HSD analysis,</t>
+  </si>
+  <si>
+    <t>HSD analysis, Mediation Modeling</t>
+  </si>
+  <si>
+    <t>A Biphasic Process of Resistance Among Suspects: The Mobilization and Decline of Self-Regulatory Resources</t>
+  </si>
+  <si>
+    <t>Stephanie Madon, Max Guyll, Yueran Yang, et al.</t>
+  </si>
+  <si>
+    <t>Descriptive Stats, Effect Size</t>
+  </si>
+  <si>
+    <t>Refusal to participate, suspicious, prior knowledge of experiment, terminated from procedure; comprimised data (procedural error)</t>
+  </si>
+  <si>
+    <t>Participant error, Procedural error</t>
+  </si>
+  <si>
+    <t>Participant error</t>
+  </si>
+  <si>
+    <t>A Cross-Cultural Analysis of the Test of Memory Malingering Among Latin American Spanish-Speaking Adults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia Nijdam-Jones, Diego Rivera, Barry Rosenfeld, and Juan Carlos Arango-Lasprilla </t>
+  </si>
+  <si>
+    <t>ANOVAs</t>
+  </si>
+  <si>
+    <t>Determining When to Conduct a Violence Risk Assessment: Development and Initial Validation of the Fordham Risk Screening Tool (FRST)</t>
+  </si>
+  <si>
+    <t>Barry Rosenfeld, Melodie Foellmi, Ali Khadivi et al.</t>
+  </si>
+  <si>
+    <t>Chi Square</t>
+  </si>
+  <si>
+    <t>Keep Your Bias to Yourself: How Deliberating With Differently Biased Others Affects Mock-Jurors’ Guilt Decisions, Perceptions of the Defendant, Memories, and Evidence Interpretation</t>
+  </si>
+  <si>
+    <t>Christine L. Ruva and Christina C. Guenther</t>
+  </si>
+  <si>
+    <t>ANOVAs, Chi Square</t>
+  </si>
+  <si>
+    <t>with out</t>
+  </si>
+  <si>
+    <t>disqualified for failing to complete the trial phase of the study</t>
+  </si>
+  <si>
+    <t>Mock-Juror Evaluations of Traditional and Ratings-Based Eyewitness Identification Evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James D. Sauer, Matthew A. Palmer,and Neil Brewer </t>
+  </si>
+  <si>
+    <t>Cross-Tab, Chi Squared, Log-Linear Analysis</t>
+  </si>
+  <si>
+    <t>Two-way ANOVA</t>
+  </si>
+  <si>
+    <t>Log-linear analysis, Cross-Tab, Chi Squared</t>
+  </si>
+  <si>
+    <t>Correlates of Admitted Sexual Interest in Children Among Individuals Convicted of Child Pornography Offenses</t>
+  </si>
+  <si>
+    <t>Michael C. Seto  and  Angela W. Eke</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Median years of interest was 2, 5 individuals spanded 25 years or more</t>
+  </si>
+  <si>
+    <t>Why Are Conservatives More Punitive Than Liberals? A Moral Foundations Approach</t>
+  </si>
+  <si>
+    <t>Jasmine R. Silver and Eric Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical Linear Regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>Drop all cases with missing data in IV or DV</t>
+  </si>
+  <si>
+    <t>Spatial Language, Question Type, and Young Children’s Ability to Describe Clothing: Legal and Developmental Implications</t>
+  </si>
+  <si>
+    <t>Stacia Stolzenberg, Kelley McWilliams, and Thomas Lyon</t>
+  </si>
+  <si>
+    <t>Excluded because 90% of responses were deictic reponses</t>
+  </si>
+  <si>
+    <t>Assessing Law Enforcement Performance in Behavior-Based Threat Detection Tasks Involving a Concealed Weapon or Device</t>
+  </si>
+  <si>
+    <t>Dawn Sweet, Christian Meissner, and Dominick Atkinson</t>
+  </si>
+  <si>
+    <t>descriptive stats, cohen's d, somers' d</t>
+  </si>
+  <si>
+    <t>Are Adolescent Risk Assessment Tools Sensitive to Change? A Framework and Examination of the SAVRY and the YLS/CMI</t>
+  </si>
+  <si>
+    <t>Jodi L. Viljoen, Catherine S. Shaffer, Andrew L. Gray, and Kevin S. Douglas</t>
+  </si>
+  <si>
+    <t>Spearman's rho, nonparametric correlation, ROC analysis, Cox Proportional hazards regression</t>
+  </si>
+  <si>
+    <t>removed from study, did not complete follow-ups</t>
+  </si>
+  <si>
+    <t>Disentangling the Risk Assessment and Intimate Partner Violence Relation: Estimating Mediating and Moderating Effects</t>
+  </si>
+  <si>
+    <t>Kirk Williams and Richard Stansfield</t>
+  </si>
+  <si>
+    <t>Crime Seriousness and Participation in Restorative Justice: The Role of Time Elapsed Since the Offense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven Zebel, Wendy Schreurs, and Elze G. Ufkes </t>
+  </si>
+  <si>
+    <t>peopke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case omitted because it contained no information </t>
   </si>
 </sst>
 </file>
@@ -3939,7 +4242,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4157,6 +4460,38 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4263,13 +4598,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Erin M. Buchanan" refreshedDate="43132.660854050926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="608">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Erin M. Buchanan" refreshedDate="43132.846248958333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="640">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B1048576" sheet="all"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="Clinical"/>
         <s v="Cognitive"/>
         <s v="Social"/>
@@ -4278,11 +4613,12 @@
         <s v="Sports"/>
         <s v="Environmental"/>
         <s v="Overview"/>
+        <s v="Forensics "/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Journal" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="14">
         <s v="Journal of Clinical Psychology"/>
         <s v="Journal of Consulting and Clinical Psychology"/>
         <s v="Cognitive Psychology"/>
@@ -4295,6 +4631,7 @@
         <s v="Sociology of Sport Journal"/>
         <s v="Environment and Behavior"/>
         <s v="Psychonomic Bulletin &amp; Review"/>
+        <s v="Law and Human Behavior "/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4308,13 +4645,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Erin M. Buchanan" refreshedDate="43132.660906944446" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1086">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Erin M. Buchanan" refreshedDate="43132.84628784722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1086">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B1048576" sheet="unique"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="Clinical"/>
         <s v="Cognitive"/>
         <s v="Social"/>
@@ -4323,11 +4660,12 @@
         <s v="Sports"/>
         <s v="Environmental"/>
         <s v="Overview"/>
+        <s v="Forensics "/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Journal" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="14">
         <s v="Journal of Clinical Psychology"/>
         <s v="Journal of Consulting and Clinical Psychology"/>
         <s v="Cognitive Psychology"/>
@@ -4340,6 +4678,7 @@
         <s v="Sociology of Sport Journal"/>
         <s v="Environment and Behavior"/>
         <s v="Psychonomic Bulletin &amp; Review"/>
+        <s v="Law and Human Behavior "/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4353,7 +4692,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="608">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="640">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6785,6 +7124,134 @@
   <r>
     <x v="8"/>
     <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -8092,3058 +8559,3058 @@
     <x v="12"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="12"/>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -11151,13 +11618,14 @@
         <item x="4"/>
         <item x="2"/>
         <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
         <item x="8"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="14">
+      <items count="15">
         <item x="2"/>
         <item x="6"/>
         <item x="10"/>
@@ -11169,8 +11637,9 @@
         <item x="8"/>
         <item x="7"/>
         <item x="9"/>
+        <item x="13"/>
+        <item x="11"/>
         <item x="12"/>
-        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11179,7 +11648,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
@@ -11246,6 +11715,12 @@
     <i r="1">
       <x v="12"/>
     </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11269,11 +11744,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -11281,13 +11756,14 @@
         <item x="4"/>
         <item x="2"/>
         <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
         <item x="8"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="14">
+      <items count="15">
         <item x="2"/>
         <item x="6"/>
         <item x="10"/>
@@ -11299,8 +11775,9 @@
         <item x="8"/>
         <item x="7"/>
         <item x="9"/>
+        <item x="13"/>
+        <item x="11"/>
         <item x="12"/>
-        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11309,7 +11786,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
@@ -11375,6 +11852,12 @@
     </i>
     <i r="1">
       <x v="12"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -11728,9 +12211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1086"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -41040,691 +41523,1844 @@
       <c r="AF595" s="78"/>
       <c r="AG595" s="78"/>
     </row>
-    <row r="596" spans="1:33">
-      <c r="P596" s="2"/>
-      <c r="Q596" s="2"/>
-      <c r="R596" s="3"/>
-      <c r="T596" s="3"/>
-      <c r="U596" s="3"/>
-      <c r="V596" s="3"/>
-      <c r="W596" s="3"/>
-      <c r="X596" s="3"/>
-      <c r="Y596" s="3"/>
-      <c r="Z596" s="3"/>
-      <c r="AA596" s="3"/>
-      <c r="AB596" s="2"/>
-      <c r="AC596" s="2"/>
-      <c r="AD596" s="1"/>
-      <c r="AE596" s="1"/>
-      <c r="AF596" s="1"/>
-      <c r="AG596" s="1"/>
-    </row>
-    <row r="597" spans="1:33">
-      <c r="P597" s="2"/>
-      <c r="Q597" s="2"/>
-      <c r="R597" s="3"/>
-      <c r="T597" s="3"/>
-      <c r="U597" s="3"/>
-      <c r="V597" s="3"/>
-      <c r="W597" s="3"/>
-      <c r="X597" s="3"/>
-      <c r="Y597" s="3"/>
-      <c r="Z597" s="3"/>
-      <c r="AA597" s="3"/>
-      <c r="AB597" s="2"/>
-      <c r="AC597" s="2"/>
-      <c r="AD597" s="1"/>
-      <c r="AE597" s="1"/>
-      <c r="AF597" s="1"/>
-      <c r="AG597" s="1"/>
-    </row>
-    <row r="598" spans="1:33">
-      <c r="P598" s="2"/>
-      <c r="Q598" s="2"/>
-      <c r="R598" s="3"/>
-      <c r="T598" s="3"/>
-      <c r="U598" s="3"/>
-      <c r="V598" s="3"/>
-      <c r="W598" s="3"/>
-      <c r="X598" s="3"/>
-      <c r="Y598" s="3"/>
-      <c r="Z598" s="3"/>
-      <c r="AA598" s="3"/>
-      <c r="AB598" s="2"/>
-      <c r="AC598" s="2"/>
-      <c r="AD598" s="1"/>
-      <c r="AE598" s="1"/>
-      <c r="AF598" s="1"/>
-      <c r="AG598" s="1"/>
-    </row>
-    <row r="599" spans="1:33">
-      <c r="P599" s="2"/>
-      <c r="Q599" s="2"/>
-      <c r="R599" s="3"/>
-      <c r="T599" s="3"/>
-      <c r="U599" s="3"/>
-      <c r="V599" s="3"/>
-      <c r="W599" s="3"/>
-      <c r="X599" s="3"/>
-      <c r="Y599" s="3"/>
-      <c r="Z599" s="3"/>
-      <c r="AA599" s="3"/>
-      <c r="AB599" s="2"/>
-      <c r="AC599" s="2"/>
-      <c r="AD599" s="1"/>
-      <c r="AE599" s="1"/>
-      <c r="AF599" s="1"/>
-      <c r="AG599" s="1"/>
-    </row>
-    <row r="600" spans="1:33">
-      <c r="P600" s="2"/>
-      <c r="Q600" s="2"/>
-      <c r="R600" s="3"/>
-      <c r="T600" s="3"/>
-      <c r="U600" s="3"/>
-      <c r="V600" s="3"/>
-      <c r="W600" s="3"/>
-      <c r="X600" s="3"/>
-      <c r="Y600" s="3"/>
-      <c r="Z600" s="3"/>
-      <c r="AA600" s="3"/>
-      <c r="AB600" s="2"/>
-      <c r="AC600" s="2"/>
-      <c r="AD600" s="1"/>
-      <c r="AE600" s="1"/>
-      <c r="AF600" s="1"/>
-      <c r="AG600" s="1"/>
-    </row>
-    <row r="601" spans="1:33">
-      <c r="P601" s="2"/>
-      <c r="Q601" s="2"/>
-      <c r="R601" s="3"/>
-      <c r="T601" s="3"/>
-      <c r="U601" s="3"/>
-      <c r="V601" s="3"/>
-      <c r="W601" s="3"/>
-      <c r="X601" s="3"/>
-      <c r="Y601" s="3"/>
-      <c r="Z601" s="3"/>
-      <c r="AA601" s="3"/>
-      <c r="AB601" s="2"/>
-      <c r="AC601" s="2"/>
-      <c r="AD601" s="1"/>
-      <c r="AE601" s="1"/>
-      <c r="AF601" s="1"/>
-      <c r="AG601" s="1"/>
-    </row>
-    <row r="602" spans="1:33">
-      <c r="P602" s="2"/>
-      <c r="Q602" s="2"/>
-      <c r="R602" s="3"/>
-      <c r="T602" s="3"/>
-      <c r="U602" s="3"/>
-      <c r="V602" s="3"/>
-      <c r="W602" s="3"/>
-      <c r="X602" s="3"/>
-      <c r="Y602" s="3"/>
-      <c r="Z602" s="3"/>
-      <c r="AA602" s="3"/>
-      <c r="AB602" s="2"/>
-      <c r="AC602" s="2"/>
-      <c r="AD602" s="1"/>
-      <c r="AE602" s="1"/>
-      <c r="AF602" s="1"/>
-      <c r="AG602" s="1"/>
-    </row>
-    <row r="603" spans="1:33">
-      <c r="P603" s="2"/>
-      <c r="Q603" s="2"/>
-      <c r="R603" s="3"/>
-      <c r="T603" s="3"/>
-      <c r="U603" s="3"/>
-      <c r="V603" s="3"/>
-      <c r="W603" s="3"/>
-      <c r="X603" s="3"/>
-      <c r="Y603" s="3"/>
-      <c r="Z603" s="3"/>
-      <c r="AA603" s="3"/>
-      <c r="AB603" s="2"/>
-      <c r="AC603" s="2"/>
-      <c r="AD603" s="1"/>
-      <c r="AE603" s="1"/>
-      <c r="AF603" s="1"/>
-      <c r="AG603" s="1"/>
-    </row>
-    <row r="604" spans="1:33">
-      <c r="P604" s="2"/>
-      <c r="Q604" s="2"/>
-      <c r="R604" s="3"/>
-      <c r="T604" s="3"/>
-      <c r="U604" s="3"/>
-      <c r="V604" s="3"/>
-      <c r="W604" s="3"/>
-      <c r="X604" s="3"/>
-      <c r="Y604" s="3"/>
-      <c r="Z604" s="3"/>
-      <c r="AA604" s="3"/>
-      <c r="AB604" s="2"/>
-      <c r="AC604" s="2"/>
-      <c r="AD604" s="1"/>
-      <c r="AE604" s="1"/>
-      <c r="AF604" s="1"/>
-      <c r="AG604" s="1"/>
-    </row>
-    <row r="605" spans="1:33">
-      <c r="P605" s="2"/>
-      <c r="Q605" s="2"/>
-      <c r="R605" s="3"/>
-      <c r="T605" s="3"/>
-      <c r="U605" s="3"/>
-      <c r="V605" s="3"/>
-      <c r="W605" s="3"/>
-      <c r="X605" s="3"/>
-      <c r="Y605" s="3"/>
-      <c r="Z605" s="3"/>
-      <c r="AA605" s="3"/>
-      <c r="AB605" s="2"/>
-      <c r="AC605" s="2"/>
-      <c r="AD605" s="1"/>
-      <c r="AE605" s="1"/>
-      <c r="AF605" s="1"/>
-      <c r="AG605" s="1"/>
-    </row>
-    <row r="606" spans="1:33">
-      <c r="P606" s="2"/>
-      <c r="Q606" s="2"/>
-      <c r="R606" s="3"/>
-      <c r="T606" s="3"/>
-      <c r="U606" s="3"/>
-      <c r="V606" s="3"/>
-      <c r="W606" s="3"/>
-      <c r="X606" s="3"/>
-      <c r="Y606" s="3"/>
-      <c r="Z606" s="3"/>
-      <c r="AA606" s="3"/>
-      <c r="AB606" s="2"/>
-      <c r="AC606" s="2"/>
-      <c r="AD606" s="1"/>
-      <c r="AE606" s="1"/>
-      <c r="AF606" s="1"/>
-      <c r="AG606" s="1"/>
-    </row>
-    <row r="607" spans="1:33">
-      <c r="P607" s="2"/>
-      <c r="Q607" s="2"/>
-      <c r="R607" s="3"/>
-      <c r="T607" s="3"/>
-      <c r="U607" s="3"/>
-      <c r="V607" s="3"/>
-      <c r="W607" s="3"/>
-      <c r="X607" s="3"/>
-      <c r="Y607" s="3"/>
-      <c r="Z607" s="3"/>
-      <c r="AA607" s="3"/>
-      <c r="AB607" s="2"/>
-      <c r="AC607" s="2"/>
-      <c r="AD607" s="1"/>
-      <c r="AE607" s="1"/>
-      <c r="AF607" s="1"/>
-      <c r="AG607" s="1"/>
-    </row>
-    <row r="608" spans="1:33">
-      <c r="P608" s="2"/>
-      <c r="Q608" s="2"/>
-      <c r="R608" s="3"/>
-      <c r="T608" s="3"/>
-      <c r="U608" s="3"/>
-      <c r="V608" s="3"/>
-      <c r="W608" s="3"/>
-      <c r="X608" s="3"/>
-      <c r="Y608" s="3"/>
-      <c r="Z608" s="3"/>
-      <c r="AA608" s="3"/>
-      <c r="AB608" s="2"/>
-      <c r="AC608" s="2"/>
-      <c r="AD608" s="1"/>
-      <c r="AE608" s="1"/>
-      <c r="AF608" s="1"/>
-      <c r="AG608" s="1"/>
-    </row>
-    <row r="609" spans="16:33">
-      <c r="P609" s="2"/>
-      <c r="Q609" s="2"/>
-      <c r="R609" s="3"/>
-      <c r="T609" s="3"/>
-      <c r="U609" s="3"/>
-      <c r="V609" s="3"/>
-      <c r="W609" s="3"/>
-      <c r="X609" s="3"/>
-      <c r="Y609" s="3"/>
-      <c r="Z609" s="3"/>
-      <c r="AA609" s="3"/>
-      <c r="AB609" s="2"/>
-      <c r="AC609" s="2"/>
-      <c r="AD609" s="1"/>
-      <c r="AE609" s="1"/>
-      <c r="AF609" s="1"/>
-      <c r="AG609" s="1"/>
-    </row>
-    <row r="610" spans="16:33">
-      <c r="P610" s="2"/>
-      <c r="Q610" s="2"/>
-      <c r="R610" s="3"/>
-      <c r="T610" s="3"/>
-      <c r="U610" s="3"/>
-      <c r="V610" s="3"/>
-      <c r="W610" s="3"/>
-      <c r="X610" s="3"/>
-      <c r="Y610" s="3"/>
-      <c r="Z610" s="3"/>
-      <c r="AA610" s="3"/>
-      <c r="AB610" s="2"/>
-      <c r="AC610" s="2"/>
-      <c r="AD610" s="1"/>
-      <c r="AE610" s="1"/>
-      <c r="AF610" s="1"/>
-      <c r="AG610" s="1"/>
-    </row>
-    <row r="611" spans="16:33">
-      <c r="P611" s="2"/>
-      <c r="Q611" s="2"/>
-      <c r="R611" s="3"/>
-      <c r="T611" s="3"/>
-      <c r="U611" s="3"/>
-      <c r="V611" s="3"/>
-      <c r="W611" s="3"/>
-      <c r="X611" s="3"/>
-      <c r="Y611" s="3"/>
-      <c r="Z611" s="3"/>
-      <c r="AA611" s="3"/>
-      <c r="AB611" s="2"/>
-      <c r="AC611" s="2"/>
-      <c r="AD611" s="1"/>
-      <c r="AE611" s="1"/>
-      <c r="AF611" s="1"/>
-      <c r="AG611" s="1"/>
-    </row>
-    <row r="612" spans="16:33">
-      <c r="P612" s="2"/>
-      <c r="Q612" s="2"/>
-      <c r="R612" s="3"/>
-      <c r="T612" s="3"/>
-      <c r="U612" s="3"/>
-      <c r="V612" s="3"/>
-      <c r="W612" s="3"/>
-      <c r="X612" s="3"/>
-      <c r="Y612" s="3"/>
-      <c r="Z612" s="3"/>
-      <c r="AA612" s="3"/>
-      <c r="AB612" s="2"/>
-      <c r="AC612" s="2"/>
-      <c r="AD612" s="1"/>
-      <c r="AE612" s="1"/>
-      <c r="AF612" s="1"/>
-      <c r="AG612" s="1"/>
-    </row>
-    <row r="613" spans="16:33">
-      <c r="P613" s="2"/>
-      <c r="Q613" s="2"/>
-      <c r="R613" s="3"/>
-      <c r="T613" s="3"/>
-      <c r="U613" s="3"/>
-      <c r="V613" s="3"/>
-      <c r="W613" s="3"/>
-      <c r="X613" s="3"/>
-      <c r="Y613" s="3"/>
-      <c r="Z613" s="3"/>
-      <c r="AA613" s="3"/>
-      <c r="AB613" s="2"/>
-      <c r="AC613" s="2"/>
-      <c r="AD613" s="1"/>
-      <c r="AE613" s="1"/>
-      <c r="AF613" s="1"/>
-      <c r="AG613" s="1"/>
-    </row>
-    <row r="614" spans="16:33">
-      <c r="P614" s="2"/>
-      <c r="Q614" s="2"/>
-      <c r="R614" s="3"/>
-      <c r="T614" s="3"/>
-      <c r="U614" s="3"/>
-      <c r="V614" s="3"/>
-      <c r="W614" s="3"/>
-      <c r="X614" s="3"/>
-      <c r="Y614" s="3"/>
-      <c r="Z614" s="3"/>
-      <c r="AA614" s="3"/>
-      <c r="AB614" s="2"/>
-      <c r="AC614" s="2"/>
-      <c r="AD614" s="1"/>
-      <c r="AE614" s="1"/>
-      <c r="AF614" s="1"/>
-      <c r="AG614" s="1"/>
-    </row>
-    <row r="615" spans="16:33">
-      <c r="P615" s="2"/>
-      <c r="Q615" s="2"/>
-      <c r="R615" s="3"/>
-      <c r="T615" s="3"/>
-      <c r="U615" s="3"/>
-      <c r="V615" s="3"/>
-      <c r="W615" s="3"/>
-      <c r="X615" s="3"/>
-      <c r="Y615" s="3"/>
-      <c r="Z615" s="3"/>
-      <c r="AA615" s="3"/>
-      <c r="AB615" s="2"/>
-      <c r="AC615" s="2"/>
-      <c r="AD615" s="1"/>
-      <c r="AE615" s="1"/>
-      <c r="AF615" s="1"/>
-      <c r="AG615" s="1"/>
-    </row>
-    <row r="616" spans="16:33">
-      <c r="P616" s="2"/>
-      <c r="Q616" s="2"/>
-      <c r="R616" s="3"/>
-      <c r="T616" s="3"/>
-      <c r="U616" s="3"/>
-      <c r="V616" s="3"/>
-      <c r="W616" s="3"/>
-      <c r="X616" s="3"/>
-      <c r="Y616" s="3"/>
-      <c r="Z616" s="3"/>
-      <c r="AA616" s="3"/>
-      <c r="AB616" s="2"/>
-      <c r="AC616" s="2"/>
-      <c r="AD616" s="1"/>
-      <c r="AE616" s="1"/>
-      <c r="AF616" s="1"/>
-      <c r="AG616" s="1"/>
-    </row>
-    <row r="617" spans="16:33">
-      <c r="P617" s="2"/>
-      <c r="Q617" s="2"/>
-      <c r="R617" s="3"/>
-      <c r="T617" s="3"/>
-      <c r="U617" s="3"/>
-      <c r="V617" s="3"/>
-      <c r="W617" s="3"/>
-      <c r="X617" s="3"/>
-      <c r="Y617" s="3"/>
-      <c r="Z617" s="3"/>
-      <c r="AA617" s="3"/>
-      <c r="AB617" s="2"/>
-      <c r="AC617" s="2"/>
-      <c r="AD617" s="1"/>
-      <c r="AE617" s="1"/>
-      <c r="AF617" s="1"/>
-      <c r="AG617" s="1"/>
-    </row>
-    <row r="618" spans="16:33">
-      <c r="P618" s="2"/>
-      <c r="Q618" s="2"/>
-      <c r="R618" s="3"/>
-      <c r="T618" s="3"/>
-      <c r="U618" s="3"/>
-      <c r="V618" s="3"/>
-      <c r="W618" s="3"/>
-      <c r="X618" s="3"/>
-      <c r="Y618" s="3"/>
-      <c r="Z618" s="3"/>
-      <c r="AA618" s="3"/>
-      <c r="AB618" s="2"/>
-      <c r="AC618" s="2"/>
-      <c r="AD618" s="1"/>
-      <c r="AE618" s="1"/>
-      <c r="AF618" s="1"/>
-      <c r="AG618" s="1"/>
-    </row>
-    <row r="619" spans="16:33">
-      <c r="P619" s="2"/>
-      <c r="Q619" s="2"/>
-      <c r="R619" s="3"/>
-      <c r="T619" s="3"/>
-      <c r="U619" s="3"/>
-      <c r="V619" s="3"/>
-      <c r="W619" s="3"/>
-      <c r="X619" s="3"/>
-      <c r="Y619" s="3"/>
-      <c r="Z619" s="3"/>
-      <c r="AA619" s="3"/>
-      <c r="AB619" s="2"/>
-      <c r="AC619" s="2"/>
-      <c r="AD619" s="1"/>
-      <c r="AE619" s="1"/>
-      <c r="AF619" s="1"/>
-      <c r="AG619" s="1"/>
-    </row>
-    <row r="620" spans="16:33">
-      <c r="P620" s="2"/>
-      <c r="Q620" s="2"/>
-      <c r="R620" s="3"/>
-      <c r="T620" s="3"/>
-      <c r="U620" s="3"/>
-      <c r="V620" s="3"/>
-      <c r="W620" s="3"/>
-      <c r="X620" s="3"/>
-      <c r="Y620" s="3"/>
-      <c r="Z620" s="3"/>
-      <c r="AA620" s="3"/>
-      <c r="AB620" s="2"/>
-      <c r="AC620" s="2"/>
-      <c r="AD620" s="1"/>
-      <c r="AE620" s="1"/>
-      <c r="AF620" s="1"/>
-      <c r="AG620" s="1"/>
-    </row>
-    <row r="621" spans="16:33">
-      <c r="P621" s="2"/>
-      <c r="Q621" s="2"/>
-      <c r="R621" s="3"/>
-      <c r="T621" s="3"/>
-      <c r="U621" s="3"/>
-      <c r="V621" s="3"/>
-      <c r="W621" s="3"/>
-      <c r="X621" s="3"/>
-      <c r="Y621" s="3"/>
-      <c r="Z621" s="3"/>
-      <c r="AA621" s="3"/>
-      <c r="AB621" s="2"/>
-      <c r="AC621" s="2"/>
-      <c r="AD621" s="1"/>
-      <c r="AE621" s="1"/>
-      <c r="AF621" s="1"/>
-      <c r="AG621" s="1"/>
-    </row>
-    <row r="622" spans="16:33">
-      <c r="P622" s="2"/>
-      <c r="Q622" s="2"/>
-      <c r="R622" s="3"/>
-      <c r="T622" s="3"/>
-      <c r="U622" s="3"/>
-      <c r="V622" s="3"/>
-      <c r="W622" s="3"/>
-      <c r="X622" s="3"/>
-      <c r="Y622" s="3"/>
-      <c r="Z622" s="3"/>
-      <c r="AA622" s="3"/>
-      <c r="AB622" s="2"/>
-      <c r="AC622" s="2"/>
-      <c r="AD622" s="1"/>
-      <c r="AE622" s="1"/>
-      <c r="AF622" s="1"/>
-      <c r="AG622" s="1"/>
-    </row>
-    <row r="623" spans="16:33">
-      <c r="P623" s="2"/>
-      <c r="Q623" s="2"/>
-      <c r="R623" s="3"/>
-      <c r="T623" s="3"/>
-      <c r="U623" s="3"/>
-      <c r="V623" s="3"/>
-      <c r="W623" s="3"/>
-      <c r="X623" s="3"/>
-      <c r="Y623" s="3"/>
-      <c r="Z623" s="3"/>
-      <c r="AA623" s="3"/>
-      <c r="AB623" s="2"/>
-      <c r="AC623" s="2"/>
-      <c r="AD623" s="1"/>
-      <c r="AE623" s="1"/>
-      <c r="AF623" s="1"/>
-      <c r="AG623" s="1"/>
-    </row>
-    <row r="624" spans="16:33">
-      <c r="P624" s="2"/>
-      <c r="Q624" s="2"/>
-      <c r="R624" s="3"/>
-      <c r="T624" s="3"/>
-      <c r="U624" s="3"/>
-      <c r="V624" s="3"/>
-      <c r="W624" s="3"/>
-      <c r="X624" s="3"/>
-      <c r="Y624" s="3"/>
-      <c r="Z624" s="3"/>
-      <c r="AA624" s="3"/>
-      <c r="AB624" s="2"/>
-      <c r="AC624" s="2"/>
-      <c r="AD624" s="1"/>
-      <c r="AE624" s="1"/>
-      <c r="AF624" s="1"/>
-      <c r="AG624" s="1"/>
-    </row>
-    <row r="625" spans="16:33">
-      <c r="P625" s="2"/>
-      <c r="Q625" s="2"/>
-      <c r="R625" s="3"/>
-      <c r="T625" s="3"/>
-      <c r="U625" s="3"/>
-      <c r="V625" s="3"/>
-      <c r="W625" s="3"/>
-      <c r="X625" s="3"/>
-      <c r="Y625" s="3"/>
-      <c r="Z625" s="3"/>
-      <c r="AA625" s="3"/>
-      <c r="AB625" s="2"/>
-      <c r="AC625" s="2"/>
-      <c r="AD625" s="1"/>
-      <c r="AE625" s="1"/>
-      <c r="AF625" s="1"/>
-      <c r="AG625" s="1"/>
-    </row>
-    <row r="626" spans="16:33">
-      <c r="P626" s="2"/>
-      <c r="Q626" s="2"/>
-      <c r="R626" s="3"/>
-      <c r="T626" s="3"/>
-      <c r="U626" s="3"/>
-      <c r="V626" s="3"/>
-      <c r="W626" s="3"/>
-      <c r="X626" s="3"/>
-      <c r="Y626" s="3"/>
-      <c r="Z626" s="3"/>
-      <c r="AA626" s="3"/>
-      <c r="AB626" s="2"/>
-      <c r="AC626" s="2"/>
-      <c r="AD626" s="1"/>
-      <c r="AE626" s="1"/>
-      <c r="AF626" s="1"/>
-      <c r="AG626" s="1"/>
-    </row>
-    <row r="627" spans="16:33">
-      <c r="P627" s="2"/>
-      <c r="Q627" s="2"/>
-      <c r="R627" s="3"/>
-      <c r="T627" s="3"/>
-      <c r="U627" s="3"/>
-      <c r="V627" s="3"/>
-      <c r="W627" s="3"/>
-      <c r="X627" s="3"/>
-      <c r="Y627" s="3"/>
-      <c r="Z627" s="3"/>
-      <c r="AA627" s="3"/>
-      <c r="AB627" s="2"/>
-      <c r="AC627" s="2"/>
-      <c r="AD627" s="1"/>
-      <c r="AE627" s="1"/>
-      <c r="AF627" s="1"/>
-      <c r="AG627" s="1"/>
-    </row>
-    <row r="628" spans="16:33">
-      <c r="P628" s="2"/>
-      <c r="Q628" s="2"/>
-      <c r="R628" s="3"/>
-      <c r="T628" s="3"/>
-      <c r="U628" s="3"/>
-      <c r="V628" s="3"/>
-      <c r="W628" s="3"/>
-      <c r="X628" s="3"/>
-      <c r="Y628" s="3"/>
-      <c r="Z628" s="3"/>
-      <c r="AA628" s="3"/>
-      <c r="AB628" s="2"/>
-      <c r="AC628" s="2"/>
-      <c r="AD628" s="1"/>
-      <c r="AE628" s="1"/>
-      <c r="AF628" s="1"/>
-      <c r="AG628" s="1"/>
-    </row>
-    <row r="629" spans="16:33">
-      <c r="P629" s="2"/>
-      <c r="Q629" s="2"/>
-      <c r="R629" s="3"/>
-      <c r="T629" s="3"/>
-      <c r="U629" s="3"/>
-      <c r="V629" s="3"/>
-      <c r="W629" s="3"/>
-      <c r="X629" s="3"/>
-      <c r="Y629" s="3"/>
-      <c r="Z629" s="3"/>
-      <c r="AA629" s="3"/>
-      <c r="AB629" s="2"/>
-      <c r="AC629" s="2"/>
-      <c r="AD629" s="1"/>
-      <c r="AE629" s="1"/>
-      <c r="AF629" s="1"/>
-      <c r="AG629" s="1"/>
-    </row>
-    <row r="630" spans="16:33">
-      <c r="P630" s="2"/>
-      <c r="Q630" s="2"/>
-      <c r="R630" s="3"/>
-      <c r="T630" s="3"/>
-      <c r="U630" s="3"/>
-      <c r="V630" s="3"/>
-      <c r="W630" s="3"/>
-      <c r="X630" s="3"/>
-      <c r="Y630" s="3"/>
-      <c r="Z630" s="3"/>
-      <c r="AA630" s="3"/>
-      <c r="AB630" s="2"/>
-      <c r="AC630" s="2"/>
-      <c r="AD630" s="1"/>
-      <c r="AE630" s="1"/>
-      <c r="AF630" s="1"/>
-      <c r="AG630" s="1"/>
-    </row>
-    <row r="631" spans="16:33">
-      <c r="P631" s="2"/>
-      <c r="Q631" s="2"/>
-      <c r="R631" s="3"/>
-      <c r="T631" s="3"/>
-      <c r="U631" s="3"/>
-      <c r="V631" s="3"/>
-      <c r="W631" s="3"/>
-      <c r="X631" s="3"/>
-      <c r="Y631" s="3"/>
-      <c r="Z631" s="3"/>
-      <c r="AA631" s="3"/>
-      <c r="AB631" s="2"/>
-      <c r="AC631" s="2"/>
-      <c r="AD631" s="1"/>
-      <c r="AE631" s="1"/>
-      <c r="AF631" s="1"/>
-      <c r="AG631" s="1"/>
-    </row>
-    <row r="632" spans="16:33">
+    <row r="596" spans="1:33" s="91" customFormat="1" ht="22" customHeight="1">
+      <c r="A596" s="89" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B596" s="89" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C596" s="90" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D596" s="90" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E596" s="90" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F596" s="91">
+        <v>163</v>
+      </c>
+      <c r="G596" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H596" s="92"/>
+      <c r="K596" s="92"/>
+      <c r="P596" s="93"/>
+      <c r="Q596" s="93"/>
+      <c r="R596" s="94"/>
+      <c r="T596" s="94">
+        <v>0</v>
+      </c>
+      <c r="U596" s="94">
+        <v>1</v>
+      </c>
+      <c r="V596" s="94">
+        <v>0</v>
+      </c>
+      <c r="W596" s="94">
+        <v>0</v>
+      </c>
+      <c r="X596" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y596" s="94">
+        <v>0</v>
+      </c>
+      <c r="Z596" s="94">
+        <v>0</v>
+      </c>
+      <c r="AA596" s="94">
+        <v>1</v>
+      </c>
+      <c r="AB596" s="93"/>
+      <c r="AC596" s="93"/>
+      <c r="AD596" s="93"/>
+      <c r="AE596" s="93"/>
+      <c r="AF596" s="93"/>
+      <c r="AG596" s="93"/>
+    </row>
+    <row r="597" spans="1:33" s="91" customFormat="1" ht="45" customHeight="1">
+      <c r="A597" s="89" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B597" s="89" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C597" s="90" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D597" s="90" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E597" s="90" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F597" s="91">
+        <v>161</v>
+      </c>
+      <c r="G597" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H597" s="92"/>
+      <c r="K597" s="92"/>
+      <c r="P597" s="93"/>
+      <c r="Q597" s="93"/>
+      <c r="R597" s="94"/>
+      <c r="T597" s="94">
+        <v>0</v>
+      </c>
+      <c r="U597" s="94">
+        <v>1</v>
+      </c>
+      <c r="V597" s="94">
+        <v>0</v>
+      </c>
+      <c r="W597" s="94"/>
+      <c r="X597" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y597" s="94">
+        <v>0</v>
+      </c>
+      <c r="Z597" s="94">
+        <v>0</v>
+      </c>
+      <c r="AA597" s="94">
+        <v>2</v>
+      </c>
+      <c r="AB597" s="93"/>
+      <c r="AC597" s="93"/>
+      <c r="AD597" s="93"/>
+      <c r="AE597" s="93"/>
+      <c r="AF597" s="93"/>
+      <c r="AG597" s="93"/>
+    </row>
+    <row r="598" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A598" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B598" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C598" s="16" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D598" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E598" s="95" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F598" s="13">
+        <v>249</v>
+      </c>
+      <c r="G598" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H598" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I598" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J598" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K598" s="96" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L598" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M598" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="P598" s="97"/>
+      <c r="Q598" s="97"/>
+      <c r="R598" s="98"/>
+      <c r="T598" s="98">
+        <v>0</v>
+      </c>
+      <c r="U598" s="98">
+        <v>1</v>
+      </c>
+      <c r="V598" s="98">
+        <v>0</v>
+      </c>
+      <c r="W598" s="98">
+        <v>0</v>
+      </c>
+      <c r="X598" s="98">
+        <v>0</v>
+      </c>
+      <c r="Y598" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z598" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA598" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB598" s="97"/>
+      <c r="AC598" s="97"/>
+      <c r="AD598" s="97"/>
+      <c r="AE598" s="97"/>
+      <c r="AF598" s="97"/>
+      <c r="AG598" s="97"/>
+    </row>
+    <row r="599" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A599" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B599" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C599" s="16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D599" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E599" s="96" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F599" s="10">
+        <v>127</v>
+      </c>
+      <c r="G599" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H599" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I599" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J599" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K599" s="96" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L599" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="M599" s="13">
+        <v>124</v>
+      </c>
+      <c r="N599" s="13">
+        <v>3</v>
+      </c>
+      <c r="P599" s="97"/>
+      <c r="Q599" s="97"/>
+      <c r="R599" s="98"/>
+      <c r="T599" s="98"/>
+      <c r="U599" s="98"/>
+      <c r="V599" s="98"/>
+      <c r="W599" s="98"/>
+      <c r="X599" s="98"/>
+      <c r="Y599" s="98"/>
+      <c r="Z599" s="98"/>
+      <c r="AA599" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB599" s="97"/>
+      <c r="AC599" s="97"/>
+      <c r="AD599" s="97"/>
+      <c r="AE599" s="97"/>
+      <c r="AF599" s="97"/>
+      <c r="AG599" s="97"/>
+    </row>
+    <row r="600" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A600" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B600" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C600" s="95" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D600" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E600" s="96" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F600" s="10">
+        <v>112</v>
+      </c>
+      <c r="G600" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H600" s="95"/>
+      <c r="K600" s="95"/>
+      <c r="P600" s="97"/>
+      <c r="Q600" s="97"/>
+      <c r="R600" s="98"/>
+      <c r="T600" s="98"/>
+      <c r="U600" s="98"/>
+      <c r="V600" s="98"/>
+      <c r="W600" s="98"/>
+      <c r="X600" s="98"/>
+      <c r="Y600" s="98"/>
+      <c r="Z600" s="98"/>
+      <c r="AA600" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB600" s="97"/>
+      <c r="AC600" s="97"/>
+      <c r="AD600" s="97"/>
+      <c r="AE600" s="97"/>
+      <c r="AF600" s="97"/>
+      <c r="AG600" s="97"/>
+    </row>
+    <row r="601" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A601" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B601" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C601" s="95" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D601" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E601" s="96" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F601" s="10">
+        <v>151</v>
+      </c>
+      <c r="G601" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H601" s="95"/>
+      <c r="K601" s="95"/>
+      <c r="P601" s="97"/>
+      <c r="Q601" s="97"/>
+      <c r="R601" s="98"/>
+      <c r="T601" s="98"/>
+      <c r="U601" s="98"/>
+      <c r="V601" s="98"/>
+      <c r="W601" s="98"/>
+      <c r="X601" s="98"/>
+      <c r="Y601" s="98"/>
+      <c r="Z601" s="98"/>
+      <c r="AA601" s="98">
+        <v>2</v>
+      </c>
+      <c r="AB601" s="97"/>
+      <c r="AC601" s="97"/>
+      <c r="AD601" s="97"/>
+      <c r="AE601" s="97"/>
+      <c r="AF601" s="97"/>
+      <c r="AG601" s="97"/>
+    </row>
+    <row r="602" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A602" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B602" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C602" s="95" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D602" s="96" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E602" s="96" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F602" s="10">
+        <v>1216</v>
+      </c>
+      <c r="G602" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H602" s="95"/>
+      <c r="K602" s="95"/>
+      <c r="P602" s="97"/>
+      <c r="Q602" s="97"/>
+      <c r="R602" s="98"/>
+      <c r="T602" s="98"/>
+      <c r="U602" s="98"/>
+      <c r="V602" s="98"/>
+      <c r="W602" s="98"/>
+      <c r="X602" s="98"/>
+      <c r="Y602" s="98"/>
+      <c r="Z602" s="98"/>
+      <c r="AA602" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB602" s="97"/>
+      <c r="AC602" s="97"/>
+      <c r="AD602" s="97"/>
+      <c r="AE602" s="97"/>
+      <c r="AF602" s="97"/>
+      <c r="AG602" s="97"/>
+    </row>
+    <row r="603" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A603" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B603" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C603" s="95" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D603" s="96" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E603" s="96" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F603" s="10">
+        <v>225</v>
+      </c>
+      <c r="G603" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H603" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I603" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J603" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K603" s="95" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L603" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M603" s="13">
+        <v>223</v>
+      </c>
+      <c r="N603" s="13">
+        <v>2</v>
+      </c>
+      <c r="P603" s="97"/>
+      <c r="Q603" s="97"/>
+      <c r="R603" s="98"/>
+      <c r="T603" s="98"/>
+      <c r="U603" s="98"/>
+      <c r="V603" s="98"/>
+      <c r="W603" s="98"/>
+      <c r="X603" s="98"/>
+      <c r="Y603" s="98"/>
+      <c r="Z603" s="98"/>
+      <c r="AA603" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB603" s="97"/>
+      <c r="AC603" s="97"/>
+      <c r="AD603" s="97"/>
+      <c r="AE603" s="97"/>
+      <c r="AF603" s="97"/>
+      <c r="AG603" s="97"/>
+    </row>
+    <row r="604" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A604" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B604" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C604" s="95" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D604" s="96" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E604" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F604" s="99">
+        <v>58678</v>
+      </c>
+      <c r="G604" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H604" s="95"/>
+      <c r="K604" s="95"/>
+      <c r="P604" s="97"/>
+      <c r="Q604" s="97"/>
+      <c r="R604" s="98"/>
+      <c r="T604" s="98"/>
+      <c r="U604" s="98"/>
+      <c r="V604" s="98"/>
+      <c r="W604" s="98"/>
+      <c r="X604" s="98"/>
+      <c r="Y604" s="98"/>
+      <c r="Z604" s="98"/>
+      <c r="AA604" s="98"/>
+      <c r="AB604" s="97"/>
+      <c r="AC604" s="97"/>
+      <c r="AD604" s="97"/>
+      <c r="AE604" s="97"/>
+      <c r="AF604" s="97"/>
+      <c r="AG604" s="97"/>
+    </row>
+    <row r="605" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A605" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B605" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C605" s="95" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D605" s="95" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E605" s="96" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F605" s="10">
+        <v>306</v>
+      </c>
+      <c r="G605" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H605" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I605" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J605" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K605" s="96" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L605" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M605" s="13">
+        <v>305</v>
+      </c>
+      <c r="N605" s="13">
+        <v>1</v>
+      </c>
+      <c r="P605" s="97"/>
+      <c r="Q605" s="97"/>
+      <c r="R605" s="98"/>
+      <c r="T605" s="98"/>
+      <c r="U605" s="98"/>
+      <c r="V605" s="98"/>
+      <c r="W605" s="98"/>
+      <c r="X605" s="98"/>
+      <c r="Y605" s="98"/>
+      <c r="Z605" s="98"/>
+      <c r="AA605" s="98"/>
+      <c r="AB605" s="100"/>
+      <c r="AC605" s="97"/>
+      <c r="AD605" s="100"/>
+      <c r="AE605" s="100"/>
+      <c r="AF605" s="100"/>
+      <c r="AG605" s="100"/>
+    </row>
+    <row r="606" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A606" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B606" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C606" s="95" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D606" s="96" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E606" s="96" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F606" s="10">
+        <v>18</v>
+      </c>
+      <c r="G606" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H606" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I606" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J606" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K606" s="96" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L606" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M606" s="13">
+        <v>16</v>
+      </c>
+      <c r="N606" s="13">
+        <v>2</v>
+      </c>
+      <c r="P606" s="97"/>
+      <c r="Q606" s="97"/>
+      <c r="R606" s="98"/>
+      <c r="T606" s="98"/>
+      <c r="U606" s="98"/>
+      <c r="V606" s="98"/>
+      <c r="W606" s="98"/>
+      <c r="X606" s="98"/>
+      <c r="Y606" s="98"/>
+      <c r="Z606" s="98"/>
+      <c r="AA606" s="98"/>
+      <c r="AB606" s="100"/>
+      <c r="AC606" s="97"/>
+      <c r="AD606" s="100"/>
+      <c r="AE606" s="100"/>
+      <c r="AF606" s="100"/>
+      <c r="AG606" s="100"/>
+    </row>
+    <row r="607" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A607" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B607" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C607" s="95" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D607" s="96" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E607" s="96" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F607" s="10">
+        <v>96</v>
+      </c>
+      <c r="G607" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H607" s="95"/>
+      <c r="K607" s="95"/>
+      <c r="P607" s="97"/>
+      <c r="Q607" s="97"/>
+      <c r="R607" s="98"/>
+      <c r="T607" s="98"/>
+      <c r="U607" s="98"/>
+      <c r="V607" s="98"/>
+      <c r="W607" s="98"/>
+      <c r="X607" s="98"/>
+      <c r="Y607" s="98"/>
+      <c r="Z607" s="98"/>
+      <c r="AA607" s="98"/>
+      <c r="AB607" s="100"/>
+      <c r="AC607" s="97"/>
+      <c r="AD607" s="100"/>
+      <c r="AE607" s="100"/>
+      <c r="AF607" s="100"/>
+      <c r="AG607" s="100"/>
+    </row>
+    <row r="608" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A608" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B608" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C608" s="95" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D608" s="96" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E608" s="96" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F608" s="10">
+        <v>212</v>
+      </c>
+      <c r="H608" s="95"/>
+      <c r="K608" s="95"/>
+      <c r="P608" s="97"/>
+      <c r="Q608" s="97"/>
+      <c r="R608" s="98"/>
+      <c r="T608" s="98"/>
+      <c r="U608" s="98"/>
+      <c r="V608" s="98"/>
+      <c r="W608" s="98"/>
+      <c r="X608" s="98"/>
+      <c r="Y608" s="98"/>
+      <c r="Z608" s="98"/>
+      <c r="AA608" s="98"/>
+      <c r="AB608" s="97"/>
+      <c r="AC608" s="97"/>
+      <c r="AD608" s="100"/>
+      <c r="AE608" s="100"/>
+      <c r="AF608" s="100"/>
+      <c r="AG608" s="100"/>
+    </row>
+    <row r="609" spans="1:33" s="101" customFormat="1" ht="60">
+      <c r="A609" s="101" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B609" s="101" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C609" s="102" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D609" s="103" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E609" s="103" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F609" s="104">
+        <v>5998</v>
+      </c>
+      <c r="G609" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H609" s="103" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K609" s="103" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M609" s="101">
+        <v>3371</v>
+      </c>
+      <c r="N609" s="101">
+        <v>2627</v>
+      </c>
+      <c r="P609" s="106"/>
+      <c r="Q609" s="106"/>
+      <c r="R609" s="107"/>
+      <c r="T609" s="107"/>
+      <c r="U609" s="107"/>
+      <c r="V609" s="107"/>
+      <c r="W609" s="107"/>
+      <c r="X609" s="107"/>
+      <c r="Y609" s="107"/>
+      <c r="Z609" s="107"/>
+      <c r="AA609" s="107"/>
+      <c r="AB609" s="106"/>
+      <c r="AC609" s="106"/>
+      <c r="AD609" s="108"/>
+      <c r="AE609" s="108"/>
+      <c r="AF609" s="108"/>
+      <c r="AG609" s="108"/>
+    </row>
+    <row r="610" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A610" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B610" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C610" s="95" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D610" s="96" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E610" s="96" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F610" s="10">
+        <v>191</v>
+      </c>
+      <c r="G610" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H610" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I610" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J610" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K610" s="96" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M610" s="13">
+        <v>179</v>
+      </c>
+      <c r="N610" s="13">
+        <v>12</v>
+      </c>
+      <c r="P610" s="97"/>
+      <c r="Q610" s="97"/>
+      <c r="R610" s="98"/>
+      <c r="T610" s="98"/>
+      <c r="U610" s="98"/>
+      <c r="V610" s="98"/>
+      <c r="W610" s="98"/>
+      <c r="X610" s="98"/>
+      <c r="Y610" s="98"/>
+      <c r="Z610" s="98"/>
+      <c r="AA610" s="98"/>
+      <c r="AB610" s="97"/>
+      <c r="AC610" s="97"/>
+      <c r="AD610" s="100"/>
+      <c r="AE610" s="100"/>
+      <c r="AF610" s="100"/>
+      <c r="AG610" s="100"/>
+    </row>
+    <row r="611" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A611" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B611" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C611" s="96" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D611" s="96" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E611" s="96" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F611" s="10">
+        <v>120</v>
+      </c>
+      <c r="G611" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H611" s="95"/>
+      <c r="K611" s="95"/>
+      <c r="P611" s="97"/>
+      <c r="Q611" s="97"/>
+      <c r="R611" s="98"/>
+      <c r="T611" s="98"/>
+      <c r="U611" s="98"/>
+      <c r="V611" s="98"/>
+      <c r="W611" s="98"/>
+      <c r="X611" s="98"/>
+      <c r="Y611" s="98"/>
+      <c r="Z611" s="98"/>
+      <c r="AA611" s="98"/>
+      <c r="AB611" s="97"/>
+      <c r="AC611" s="97"/>
+      <c r="AD611" s="100"/>
+      <c r="AE611" s="100"/>
+      <c r="AF611" s="100"/>
+      <c r="AG611" s="100"/>
+    </row>
+    <row r="612" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A612" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B612" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C612" s="96" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D612" s="96" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E612" s="96" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F612" s="10">
+        <v>375</v>
+      </c>
+      <c r="G612" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H612" s="95"/>
+      <c r="K612" s="95"/>
+      <c r="P612" s="97"/>
+      <c r="Q612" s="97"/>
+      <c r="R612" s="98"/>
+      <c r="T612" s="98"/>
+      <c r="U612" s="98"/>
+      <c r="V612" s="98"/>
+      <c r="W612" s="98"/>
+      <c r="X612" s="98"/>
+      <c r="Y612" s="98"/>
+      <c r="Z612" s="98"/>
+      <c r="AA612" s="98"/>
+      <c r="AB612" s="97"/>
+      <c r="AC612" s="97"/>
+      <c r="AD612" s="100"/>
+      <c r="AE612" s="100"/>
+      <c r="AF612" s="100"/>
+      <c r="AG612" s="100"/>
+    </row>
+    <row r="613" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A613" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B613" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C613" s="95" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D613" s="96" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E613" s="96" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F613" s="10">
+        <v>355</v>
+      </c>
+      <c r="G613" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H613" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I613" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J613" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K613" s="96" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L613" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M613" s="13">
+        <v>316</v>
+      </c>
+      <c r="N613" s="13">
+        <v>39</v>
+      </c>
+      <c r="P613" s="97"/>
+      <c r="Q613" s="97"/>
+      <c r="R613" s="98"/>
+      <c r="T613" s="98"/>
+      <c r="U613" s="98"/>
+      <c r="V613" s="98"/>
+      <c r="W613" s="98"/>
+      <c r="X613" s="98"/>
+      <c r="Y613" s="98"/>
+      <c r="Z613" s="98"/>
+      <c r="AA613" s="98"/>
+      <c r="AB613" s="97"/>
+      <c r="AC613" s="97"/>
+      <c r="AD613" s="100"/>
+      <c r="AE613" s="100"/>
+      <c r="AF613" s="100"/>
+      <c r="AG613" s="100"/>
+    </row>
+    <row r="614" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A614" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B614" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C614" s="95" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D614" s="96" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E614" s="96" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F614" s="10">
+        <v>165</v>
+      </c>
+      <c r="G614" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H614" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I614" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J614" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K614" s="96" t="s">
+        <v>507</v>
+      </c>
+      <c r="L614" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M614" s="13">
+        <v>165</v>
+      </c>
+      <c r="N614" s="13">
+        <v>5</v>
+      </c>
+      <c r="P614" s="97"/>
+      <c r="Q614" s="97"/>
+      <c r="R614" s="98"/>
+      <c r="T614" s="98"/>
+      <c r="U614" s="98"/>
+      <c r="V614" s="98"/>
+      <c r="W614" s="98"/>
+      <c r="X614" s="98"/>
+      <c r="Y614" s="98"/>
+      <c r="Z614" s="98"/>
+      <c r="AA614" s="98"/>
+      <c r="AB614" s="97"/>
+      <c r="AC614" s="97"/>
+      <c r="AD614" s="100"/>
+      <c r="AE614" s="100"/>
+      <c r="AF614" s="100"/>
+      <c r="AG614" s="100"/>
+    </row>
+    <row r="615" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A615" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B615" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C615" s="95" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D615" s="96" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E615" s="96" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F615" s="99">
+        <v>3590</v>
+      </c>
+      <c r="G615" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H615" s="95"/>
+      <c r="K615" s="95"/>
+      <c r="P615" s="97"/>
+      <c r="Q615" s="97"/>
+      <c r="R615" s="98"/>
+      <c r="T615" s="98"/>
+      <c r="U615" s="98"/>
+      <c r="V615" s="98"/>
+      <c r="W615" s="98"/>
+      <c r="X615" s="98"/>
+      <c r="Y615" s="98"/>
+      <c r="Z615" s="98"/>
+      <c r="AA615" s="98"/>
+      <c r="AB615" s="97"/>
+      <c r="AC615" s="97"/>
+      <c r="AD615" s="100"/>
+      <c r="AE615" s="100"/>
+      <c r="AF615" s="100"/>
+      <c r="AG615" s="100"/>
+    </row>
+    <row r="616" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A616" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B616" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C616" s="95" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D616" s="96" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E616" s="90" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F616" s="10">
+        <v>210</v>
+      </c>
+      <c r="G616" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H616" s="95"/>
+      <c r="K616" s="95"/>
+      <c r="P616" s="97"/>
+      <c r="Q616" s="97"/>
+      <c r="R616" s="98"/>
+      <c r="T616" s="98"/>
+      <c r="U616" s="98"/>
+      <c r="V616" s="98"/>
+      <c r="W616" s="98"/>
+      <c r="X616" s="98"/>
+      <c r="Y616" s="98"/>
+      <c r="Z616" s="98"/>
+      <c r="AA616" s="98"/>
+      <c r="AB616" s="97"/>
+      <c r="AC616" s="97"/>
+      <c r="AD616" s="100"/>
+      <c r="AE616" s="100"/>
+      <c r="AF616" s="100"/>
+      <c r="AG616" s="100"/>
+    </row>
+    <row r="617" spans="1:33" s="13" customFormat="1" ht="60">
+      <c r="A617" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B617" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C617" s="95" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D617" s="96" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E617" s="90" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F617" s="10">
+        <v>802</v>
+      </c>
+      <c r="G617" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H617" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I617" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J617" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K617" s="96" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M617" s="13">
+        <v>648</v>
+      </c>
+      <c r="P617" s="97"/>
+      <c r="Q617" s="97"/>
+      <c r="R617" s="98"/>
+      <c r="T617" s="98"/>
+      <c r="U617" s="98"/>
+      <c r="V617" s="98"/>
+      <c r="W617" s="98"/>
+      <c r="X617" s="98"/>
+      <c r="Y617" s="98"/>
+      <c r="Z617" s="98"/>
+      <c r="AA617" s="98"/>
+      <c r="AB617" s="97"/>
+      <c r="AC617" s="97"/>
+      <c r="AD617" s="100"/>
+      <c r="AE617" s="100"/>
+      <c r="AF617" s="100"/>
+      <c r="AG617" s="100"/>
+    </row>
+    <row r="618" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A618" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B618" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C618" s="95" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D618" s="96" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E618" s="90" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F618" s="10">
+        <v>133</v>
+      </c>
+      <c r="G618" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H618" s="95"/>
+      <c r="K618" s="95"/>
+      <c r="P618" s="97"/>
+      <c r="Q618" s="97"/>
+      <c r="R618" s="98"/>
+      <c r="T618" s="98"/>
+      <c r="U618" s="98"/>
+      <c r="V618" s="98"/>
+      <c r="W618" s="98"/>
+      <c r="X618" s="98"/>
+      <c r="Y618" s="98"/>
+      <c r="Z618" s="98"/>
+      <c r="AA618" s="98"/>
+      <c r="AB618" s="97"/>
+      <c r="AC618" s="97"/>
+      <c r="AD618" s="100"/>
+      <c r="AE618" s="100"/>
+      <c r="AF618" s="100"/>
+      <c r="AG618" s="100"/>
+    </row>
+    <row r="619" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A619" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B619" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C619" s="95" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D619" s="96" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E619" s="90" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F619" s="10">
+        <v>142</v>
+      </c>
+      <c r="G619" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H619" s="95"/>
+      <c r="K619" s="95"/>
+      <c r="P619" s="97"/>
+      <c r="Q619" s="97"/>
+      <c r="R619" s="98"/>
+      <c r="T619" s="98"/>
+      <c r="U619" s="98"/>
+      <c r="V619" s="98"/>
+      <c r="W619" s="98"/>
+      <c r="X619" s="98"/>
+      <c r="Y619" s="98"/>
+      <c r="Z619" s="98"/>
+      <c r="AA619" s="98"/>
+      <c r="AB619" s="97"/>
+      <c r="AC619" s="97"/>
+      <c r="AD619" s="100"/>
+      <c r="AE619" s="100"/>
+      <c r="AF619" s="100"/>
+      <c r="AG619" s="100"/>
+    </row>
+    <row r="620" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A620" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B620" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C620" s="95" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D620" s="96" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E620" s="90" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F620" s="10">
+        <v>71</v>
+      </c>
+      <c r="G620" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H620" s="95"/>
+      <c r="K620" s="95"/>
+      <c r="P620" s="97"/>
+      <c r="Q620" s="97"/>
+      <c r="R620" s="98"/>
+      <c r="T620" s="98"/>
+      <c r="U620" s="98"/>
+      <c r="V620" s="98"/>
+      <c r="W620" s="98"/>
+      <c r="X620" s="98"/>
+      <c r="Y620" s="98"/>
+      <c r="Z620" s="98"/>
+      <c r="AA620" s="98"/>
+      <c r="AB620" s="97"/>
+      <c r="AC620" s="97"/>
+      <c r="AD620" s="100"/>
+      <c r="AE620" s="100"/>
+      <c r="AF620" s="100"/>
+      <c r="AG620" s="100"/>
+    </row>
+    <row r="621" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A621" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B621" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C621" s="95" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D621" s="96" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E621" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F621" s="10">
+        <v>69</v>
+      </c>
+      <c r="G621" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H621" s="95"/>
+      <c r="K621" s="95"/>
+      <c r="P621" s="97"/>
+      <c r="Q621" s="97"/>
+      <c r="R621" s="98"/>
+      <c r="T621" s="98"/>
+      <c r="U621" s="98"/>
+      <c r="V621" s="98"/>
+      <c r="W621" s="98"/>
+      <c r="X621" s="98"/>
+      <c r="Y621" s="98"/>
+      <c r="Z621" s="98"/>
+      <c r="AA621" s="98"/>
+      <c r="AB621" s="97"/>
+      <c r="AC621" s="97"/>
+      <c r="AD621" s="100"/>
+      <c r="AE621" s="100"/>
+      <c r="AF621" s="100"/>
+      <c r="AG621" s="100"/>
+    </row>
+    <row r="622" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A622" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B622" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C622" s="95" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D622" s="96" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E622" s="90" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F622" s="10">
+        <v>286</v>
+      </c>
+      <c r="G622" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H622" s="96" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I622" s="10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J622" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="K622" s="96" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L622" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="M622" s="13">
+        <v>286</v>
+      </c>
+      <c r="P622" s="97"/>
+      <c r="Q622" s="97"/>
+      <c r="R622" s="98"/>
+      <c r="T622" s="98"/>
+      <c r="U622" s="98"/>
+      <c r="V622" s="98"/>
+      <c r="W622" s="98"/>
+      <c r="X622" s="98"/>
+      <c r="Y622" s="98"/>
+      <c r="Z622" s="98"/>
+      <c r="AA622" s="98"/>
+      <c r="AB622" s="97"/>
+      <c r="AC622" s="97"/>
+      <c r="AD622" s="100"/>
+      <c r="AE622" s="100"/>
+      <c r="AF622" s="100"/>
+      <c r="AG622" s="100"/>
+    </row>
+    <row r="623" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A623" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B623" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C623" s="95" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D623" s="96" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E623" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F623" s="10">
+        <v>1464</v>
+      </c>
+      <c r="G623" s="10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H623" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I623" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J623" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K623" s="96" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L623" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M623" s="13">
+        <v>1287</v>
+      </c>
+      <c r="N623" s="13">
+        <v>177</v>
+      </c>
+      <c r="P623" s="97"/>
+      <c r="Q623" s="97"/>
+      <c r="R623" s="98"/>
+      <c r="T623" s="98"/>
+      <c r="U623" s="98"/>
+      <c r="V623" s="98"/>
+      <c r="W623" s="98"/>
+      <c r="X623" s="98"/>
+      <c r="Y623" s="98"/>
+      <c r="Z623" s="98"/>
+      <c r="AA623" s="98"/>
+      <c r="AB623" s="97"/>
+      <c r="AC623" s="97"/>
+      <c r="AD623" s="100"/>
+      <c r="AE623" s="100"/>
+      <c r="AF623" s="100"/>
+      <c r="AG623" s="100"/>
+    </row>
+    <row r="624" spans="1:33" s="13" customFormat="1" ht="30">
+      <c r="A624" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B624" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C624" s="95" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D624" s="96" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E624" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F624" s="10">
+        <v>1025</v>
+      </c>
+      <c r="G624" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H624" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I624" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J624" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K624" s="96" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L624" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M624" s="13">
+        <v>910</v>
+      </c>
+      <c r="N624" s="13">
+        <v>115</v>
+      </c>
+      <c r="P624" s="97"/>
+      <c r="Q624" s="97"/>
+      <c r="R624" s="98"/>
+      <c r="T624" s="98"/>
+      <c r="U624" s="98"/>
+      <c r="V624" s="98"/>
+      <c r="W624" s="98"/>
+      <c r="X624" s="98"/>
+      <c r="Y624" s="98"/>
+      <c r="Z624" s="98"/>
+      <c r="AA624" s="98"/>
+      <c r="AB624" s="97"/>
+      <c r="AC624" s="97"/>
+      <c r="AD624" s="100"/>
+      <c r="AE624" s="100"/>
+      <c r="AF624" s="100"/>
+      <c r="AG624" s="100"/>
+    </row>
+    <row r="625" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A625" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B625" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C625" s="95" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D625" s="96" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E625" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="F625" s="10">
+        <v>97</v>
+      </c>
+      <c r="G625" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H625" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I625" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J625" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K625" s="96" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L625" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M625" s="10">
+        <v>91</v>
+      </c>
+      <c r="N625" s="13">
+        <v>6</v>
+      </c>
+      <c r="P625" s="97"/>
+      <c r="Q625" s="97"/>
+      <c r="R625" s="98"/>
+      <c r="T625" s="98"/>
+      <c r="U625" s="98"/>
+      <c r="V625" s="98"/>
+      <c r="W625" s="98"/>
+      <c r="X625" s="98"/>
+      <c r="Y625" s="98"/>
+      <c r="Z625" s="98"/>
+      <c r="AA625" s="98"/>
+      <c r="AB625" s="97"/>
+      <c r="AC625" s="97"/>
+      <c r="AD625" s="100"/>
+      <c r="AE625" s="100"/>
+      <c r="AF625" s="100"/>
+      <c r="AG625" s="100"/>
+    </row>
+    <row r="626" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A626" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B626" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C626" s="95" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D626" s="96" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E626" s="90" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F626" s="10">
+        <v>107</v>
+      </c>
+      <c r="G626" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H626" s="95"/>
+      <c r="K626" s="95"/>
+      <c r="P626" s="97"/>
+      <c r="Q626" s="97"/>
+      <c r="R626" s="98"/>
+      <c r="T626" s="98"/>
+      <c r="U626" s="98"/>
+      <c r="V626" s="98"/>
+      <c r="W626" s="98"/>
+      <c r="X626" s="98"/>
+      <c r="Y626" s="98"/>
+      <c r="Z626" s="98"/>
+      <c r="AA626" s="98"/>
+      <c r="AB626" s="97"/>
+      <c r="AC626" s="97"/>
+      <c r="AD626" s="100"/>
+      <c r="AE626" s="100"/>
+      <c r="AF626" s="100"/>
+      <c r="AG626" s="100"/>
+    </row>
+    <row r="627" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A627" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B627" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C627" s="95" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D627" s="96" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E627" s="90" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F627" s="10">
+        <v>104</v>
+      </c>
+      <c r="G627" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H627" s="95"/>
+      <c r="K627" s="95"/>
+      <c r="P627" s="97"/>
+      <c r="Q627" s="97"/>
+      <c r="R627" s="98"/>
+      <c r="T627" s="98"/>
+      <c r="U627" s="98"/>
+      <c r="V627" s="98"/>
+      <c r="W627" s="98"/>
+      <c r="X627" s="98"/>
+      <c r="Y627" s="98"/>
+      <c r="Z627" s="98"/>
+      <c r="AA627" s="98"/>
+      <c r="AB627" s="97"/>
+      <c r="AC627" s="97"/>
+      <c r="AD627" s="100"/>
+      <c r="AE627" s="100"/>
+      <c r="AF627" s="100"/>
+      <c r="AG627" s="100"/>
+    </row>
+    <row r="628" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A628" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B628" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C628" s="95" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D628" s="96" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E628" s="90" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F628" s="10">
+        <v>104</v>
+      </c>
+      <c r="G628" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H628" s="95"/>
+      <c r="K628" s="95"/>
+      <c r="P628" s="97"/>
+      <c r="Q628" s="97"/>
+      <c r="R628" s="98"/>
+      <c r="T628" s="98"/>
+      <c r="U628" s="98"/>
+      <c r="V628" s="98"/>
+      <c r="W628" s="98"/>
+      <c r="X628" s="98"/>
+      <c r="Y628" s="98"/>
+      <c r="Z628" s="98"/>
+      <c r="AA628" s="98"/>
+      <c r="AB628" s="97"/>
+      <c r="AC628" s="97"/>
+      <c r="AD628" s="100"/>
+      <c r="AE628" s="100"/>
+      <c r="AF628" s="100"/>
+      <c r="AG628" s="100"/>
+    </row>
+    <row r="629" spans="1:33" s="13" customFormat="1" ht="75">
+      <c r="A629" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B629" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C629" s="95" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D629" s="95" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E629" s="90" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F629" s="10">
+        <v>163</v>
+      </c>
+      <c r="G629" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H629" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I629" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J629" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K629" s="96" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L629" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M629" s="13">
+        <v>146</v>
+      </c>
+      <c r="N629" s="13">
+        <v>17</v>
+      </c>
+      <c r="P629" s="97"/>
+      <c r="Q629" s="97"/>
+      <c r="R629" s="98"/>
+      <c r="T629" s="98"/>
+      <c r="U629" s="98"/>
+      <c r="V629" s="98"/>
+      <c r="W629" s="98"/>
+      <c r="X629" s="98"/>
+      <c r="Y629" s="98"/>
+      <c r="Z629" s="98"/>
+      <c r="AA629" s="98"/>
+      <c r="AB629" s="97"/>
+      <c r="AC629" s="97"/>
+      <c r="AD629" s="100"/>
+      <c r="AE629" s="100"/>
+      <c r="AF629" s="100"/>
+      <c r="AG629" s="100"/>
+    </row>
+    <row r="630" spans="1:33" s="13" customFormat="1" ht="45">
+      <c r="A630" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B630" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C630" s="95" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D630" s="96" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E630" s="90" t="s">
+        <v>533</v>
+      </c>
+      <c r="F630" s="10">
+        <v>2520</v>
+      </c>
+      <c r="G630" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H630" s="95"/>
+      <c r="K630" s="95"/>
+      <c r="P630" s="97"/>
+      <c r="Q630" s="97"/>
+      <c r="R630" s="98"/>
+      <c r="T630" s="98"/>
+      <c r="U630" s="98"/>
+      <c r="V630" s="98"/>
+      <c r="W630" s="98"/>
+      <c r="X630" s="98"/>
+      <c r="Y630" s="98"/>
+      <c r="Z630" s="98"/>
+      <c r="AA630" s="98"/>
+      <c r="AB630" s="97"/>
+      <c r="AC630" s="97"/>
+      <c r="AD630" s="100"/>
+      <c r="AE630" s="100"/>
+      <c r="AF630" s="100"/>
+      <c r="AG630" s="100"/>
+    </row>
+    <row r="631" spans="1:33" s="13" customFormat="1" ht="58.25" customHeight="1">
+      <c r="A631" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B631" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C631" s="95" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D631" s="95" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E631" s="95"/>
+      <c r="F631" s="13">
+        <v>200</v>
+      </c>
+      <c r="G631" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H631" s="96" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I631" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J631" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K631" s="96" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M631" s="13">
+        <v>199</v>
+      </c>
+      <c r="P631" s="97"/>
+      <c r="Q631" s="97"/>
+      <c r="R631" s="98"/>
+      <c r="T631" s="98"/>
+      <c r="U631" s="98"/>
+      <c r="V631" s="98"/>
+      <c r="W631" s="98"/>
+      <c r="X631" s="98"/>
+      <c r="Y631" s="98"/>
+      <c r="Z631" s="98"/>
+      <c r="AA631" s="98"/>
+      <c r="AB631" s="97"/>
+      <c r="AC631" s="97"/>
+      <c r="AD631" s="100"/>
+      <c r="AE631" s="100"/>
+      <c r="AF631" s="100"/>
+      <c r="AG631" s="100"/>
+    </row>
+    <row r="632" spans="1:33">
       <c r="P632" s="2"/>
       <c r="Q632" s="2"/>
       <c r="R632" s="3"/>
@@ -41743,7 +43379,7 @@
       <c r="AF632" s="1"/>
       <c r="AG632" s="1"/>
     </row>
-    <row r="633" spans="16:33">
+    <row r="633" spans="1:33">
       <c r="P633" s="2"/>
       <c r="Q633" s="2"/>
       <c r="R633" s="3"/>
@@ -41762,7 +43398,7 @@
       <c r="AF633" s="1"/>
       <c r="AG633" s="1"/>
     </row>
-    <row r="634" spans="16:33">
+    <row r="634" spans="1:33">
       <c r="P634" s="2"/>
       <c r="Q634" s="2"/>
       <c r="R634" s="3"/>
@@ -41781,7 +43417,7 @@
       <c r="AF634" s="1"/>
       <c r="AG634" s="1"/>
     </row>
-    <row r="635" spans="16:33">
+    <row r="635" spans="1:33">
       <c r="P635" s="2"/>
       <c r="Q635" s="2"/>
       <c r="R635" s="3"/>
@@ -41800,7 +43436,7 @@
       <c r="AF635" s="1"/>
       <c r="AG635" s="1"/>
     </row>
-    <row r="636" spans="16:33">
+    <row r="636" spans="1:33">
       <c r="P636" s="2"/>
       <c r="Q636" s="2"/>
       <c r="R636" s="3"/>
@@ -41819,7 +43455,7 @@
       <c r="AF636" s="1"/>
       <c r="AG636" s="1"/>
     </row>
-    <row r="637" spans="16:33">
+    <row r="637" spans="1:33">
       <c r="P637" s="2"/>
       <c r="Q637" s="2"/>
       <c r="R637" s="3"/>
@@ -41838,7 +43474,7 @@
       <c r="AF637" s="1"/>
       <c r="AG637" s="1"/>
     </row>
-    <row r="638" spans="16:33">
+    <row r="638" spans="1:33">
       <c r="P638" s="2"/>
       <c r="Q638" s="2"/>
       <c r="R638" s="3"/>
@@ -41857,7 +43493,7 @@
       <c r="AF638" s="1"/>
       <c r="AG638" s="1"/>
     </row>
-    <row r="639" spans="16:33">
+    <row r="639" spans="1:33">
       <c r="P639" s="2"/>
       <c r="Q639" s="2"/>
       <c r="R639" s="3"/>
@@ -41876,7 +43512,7 @@
       <c r="AF639" s="1"/>
       <c r="AG639" s="1"/>
     </row>
-    <row r="640" spans="16:33">
+    <row r="640" spans="1:33">
       <c r="P640" s="2"/>
       <c r="Q640" s="2"/>
       <c r="R640" s="3"/>
@@ -50385,10 +52021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50507,6 +52143,11 @@
         <v>43077</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1195</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C9">
     <sortCondition ref="A1"/>
@@ -50517,10 +52158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -53841,6 +55482,281 @@
         <v>1191</v>
       </c>
     </row>
+    <row r="302" spans="1:3" ht="30">
+      <c r="A302" s="89" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B302" s="89" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C302" s="90" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="30">
+      <c r="A303" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C303" s="16" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="45">
+      <c r="A304" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C304" s="16" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="30">
+      <c r="A305" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C305" s="95" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="45">
+      <c r="A306" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C306" s="95" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="30">
+      <c r="A307" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C307" s="95" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="45">
+      <c r="A308" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C308" s="95" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="30">
+      <c r="A309" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C309" s="95" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="30">
+      <c r="A310" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C310" s="95" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="45">
+      <c r="A311" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C311" s="95" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="45">
+      <c r="A312" s="101" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B312" s="101" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C312" s="102" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="45">
+      <c r="A313" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C313" s="95" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="30">
+      <c r="A314" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C314" s="96" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="30">
+      <c r="A315" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C315" s="95" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="45">
+      <c r="A316" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C316" s="95" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="45">
+      <c r="A317" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C317" s="95" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="60">
+      <c r="A318" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C318" s="95" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="30">
+      <c r="A319" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C319" s="95" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="30">
+      <c r="A320" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C320" s="95" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30">
+      <c r="A321" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C321" s="95" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="45">
+      <c r="A322" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C322" s="95" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="45">
+      <c r="A323" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C323" s="95" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="45">
+      <c r="A324" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C324" s="95" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="45">
+      <c r="A325" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C325" s="95" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="30">
+      <c r="A326" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C326" s="95" t="s">
+        <v>1292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53848,10 +55764,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D19" activeCellId="6" sqref="D4 D7 D10 D12 D14 D16 D19 D22 D24 D26"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="18" activeCol="3" previousRow="18" previousCol="3" click="1" r:id="rId2">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -54186,16 +56109,44 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B26" s="66">
+        <v>36</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E26" s="66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="65" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B27" s="66">
+        <v>36</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E27" s="66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="64" t="s">
         <v>1106</v>
       </c>
-      <c r="B26" s="66">
-        <v>594</v>
-      </c>
-      <c r="D26" s="64" t="s">
+      <c r="B28" s="66">
+        <v>630</v>
+      </c>
+      <c r="D28" s="64" t="s">
         <v>1106</v>
       </c>
-      <c r="E26" s="66">
-        <v>300</v>
+      <c r="E28" s="66">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/2017 processed/outliers 2017 full.xlsx
+++ b/2017 processed/outliers 2017 full.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
-  <workbookPr hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Outliers/2017 processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KDValentine/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$AG$2020</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">unique!$A$1:$C$1086</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12843" uniqueCount="2576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12845" uniqueCount="2576">
   <si>
     <t>Type</t>
   </si>
@@ -8371,7 +8371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -21975,7 +21975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -22189,7 +22189,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -22404,6 +22404,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG1048545" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:AG1048545"/>
   <tableColumns count="33">
     <tableColumn id="1" name="Type" dataDxfId="31"/>
     <tableColumn id="2" name="Journal" dataDxfId="30"/>
@@ -22742,16 +22743,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1122" sqref="Y1122"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1123" sqref="G1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="39.1640625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="44.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="27.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="31.5" style="14" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="7" customWidth="1"/>
@@ -22766,7 +22768,7 @@
     <col min="31" max="31" width="10.83203125" style="7" customWidth="1"/>
     <col min="32" max="32" width="64.83203125" style="7" customWidth="1"/>
     <col min="33" max="33" width="10.83203125" style="7" customWidth="1"/>
-    <col min="34" max="16384" width="10.83203125" style="7"/>
+    <col min="34" max="16384" width="12.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -24133,7 +24135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>33</v>
       </c>
@@ -24171,7 +24173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="90" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>33</v>
       </c>
@@ -24458,7 +24460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="60" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
@@ -28711,7 +28713,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>201</v>
       </c>
@@ -39671,7 +39673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="401" spans="1:33" ht="60" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>398</v>
       </c>
@@ -41067,7 +41069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="434" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>684</v>
       </c>
@@ -41141,7 +41143,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="435" spans="1:33" ht="60" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>684</v>
       </c>
@@ -44250,7 +44252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="522" spans="1:29" ht="30" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>658</v>
       </c>
@@ -45287,7 +45289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="553" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>1000</v>
       </c>
@@ -50158,7 +50160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="679" spans="1:33" ht="75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>1285</v>
       </c>
@@ -52255,7 +52257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="733" spans="1:33" ht="60" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>1475</v>
       </c>
@@ -53539,7 +53541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="766" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A766" s="7" t="s">
         <v>1475</v>
       </c>
@@ -54249,7 +54251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="785" spans="1:29" ht="60" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A785" s="7" t="s">
         <v>1475</v>
       </c>
@@ -55621,7 +55623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="823" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>1673</v>
       </c>
@@ -56201,7 +56203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="837" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>1737</v>
       </c>
@@ -56397,7 +56399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="843" spans="1:33" ht="150" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:33" ht="135" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>1737</v>
       </c>
@@ -57175,7 +57177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="863" spans="1:33" ht="60" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
         <v>1737</v>
       </c>
@@ -58522,7 +58524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="902" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>1942</v>
       </c>
@@ -63849,7 +63851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1049" spans="1:29" ht="120" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:29" ht="105" x14ac:dyDescent="0.2">
       <c r="A1049" s="7" t="s">
         <v>684</v>
       </c>
@@ -65304,7 +65306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1089" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A1089" s="7" t="s">
         <v>1000</v>
       </c>
@@ -66638,6 +66640,9 @@
       <c r="F1122" s="7">
         <v>300</v>
       </c>
+      <c r="G1122" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="T1122" s="7">
         <v>1</v>
       </c>
@@ -66664,6 +66669,9 @@
       <c r="F1123" s="7">
         <v>202</v>
       </c>
+      <c r="G1123" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="T1123" s="7">
         <v>1</v>
       </c>
@@ -66867,7 +66875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1129" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A1129" s="7" t="s">
         <v>1737</v>
       </c>
@@ -66984,7 +66992,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="1132" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A1132" s="7" t="s">
         <v>1737</v>
       </c>
